--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujg/document/vscode/Lazy_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA14775-583A-FE4A-B0E1-AA45E6240504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B267FB-7FD6-C448-B5D0-81BF11926927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="7960" windowWidth="27840" windowHeight="15800" xr2:uid="{CEC9A438-80B5-1D45-8350-8CDF0AA83F56}"/>
+    <workbookView xWindow="960" yWindow="1000" windowWidth="27840" windowHeight="15800" xr2:uid="{CEC9A438-80B5-1D45-8350-8CDF0AA83F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,85 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
-  <si>
-    <t>VPN1-9P-U</t>
-  </si>
-  <si>
-    <t>PDU1-9P-U</t>
-  </si>
-  <si>
-    <t>VPN2-9P-U</t>
-  </si>
-  <si>
-    <t>PDU2-9P-U</t>
-  </si>
-  <si>
-    <t>RT-9P-U</t>
-  </si>
-  <si>
-    <t>SW1-9P-U</t>
-  </si>
-  <si>
-    <t>SW2-9P-U</t>
-  </si>
-  <si>
-    <t>PDU3-9P-U</t>
-  </si>
-  <si>
-    <t>61P-UPS电源屏一-5KK</t>
-  </si>
-  <si>
-    <t>56P-直流电源屏三-2003K</t>
-  </si>
-  <si>
-    <t>NS-10P-U</t>
-  </si>
-  <si>
-    <t>PDU1-10P-U</t>
-  </si>
-  <si>
-    <t>FW-10P-U</t>
-  </si>
-  <si>
-    <t>VPN1-10P-U</t>
-  </si>
-  <si>
-    <t>VPN2-10P-U</t>
-  </si>
-  <si>
-    <t>RT-10P-U</t>
-  </si>
-  <si>
-    <t>SW1-10P-U</t>
-  </si>
-  <si>
-    <t>PDU3-10P-U</t>
-  </si>
-  <si>
-    <t>SW2-10P-U</t>
-  </si>
-  <si>
-    <t>PC1-10P-U</t>
-  </si>
-  <si>
-    <t>PDU4-10P-U</t>
-  </si>
-  <si>
-    <t>PC2-10P-U</t>
-  </si>
-  <si>
-    <t>62P-UPS电源屏二-24KK</t>
-  </si>
-  <si>
-    <t>PDU2-10P-U</t>
-  </si>
-  <si>
-    <t>53P-直流电源屏一-？K</t>
-  </si>
-  <si>
-    <t>DIS-10P-U</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>source</t>
   </si>
@@ -113,6 +35,72 @@
   <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>DC48Vdzp</t>
+  </si>
+  <si>
+    <t>pdu1</t>
+  </si>
+  <si>
+    <t>加密认证网关</t>
+  </si>
+  <si>
+    <t>zk1</t>
+  </si>
+  <si>
+    <t>逆变器</t>
+  </si>
+  <si>
+    <t>实时交换机</t>
+  </si>
+  <si>
+    <t>48Vupsbox</t>
+  </si>
+  <si>
+    <t>非实时交换机</t>
+  </si>
+  <si>
+    <t>48V不间断电源盒</t>
+  </si>
+  <si>
+    <t>jk1</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>网络安全检测装置</t>
+  </si>
+  <si>
+    <t>AC220</t>
+  </si>
+  <si>
+    <t>直流分配电源空开</t>
+  </si>
+  <si>
+    <t>直流馈线屏</t>
+  </si>
+  <si>
+    <t>DC48</t>
+  </si>
+  <si>
+    <t>nbq</t>
+  </si>
+  <si>
+    <t>DC48V端子排</t>
+  </si>
+  <si>
+    <t>zk2</t>
+  </si>
+  <si>
+    <t>交流分配电源空开</t>
+  </si>
+  <si>
+    <t>13p不间断电源屏</t>
   </si>
 </sst>
 </file>
@@ -485,42 +473,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B8C0EC-02A1-D84A-8A5E-3B8B37A8EA07}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>220</v>
@@ -528,10 +519,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>220</v>
@@ -539,10 +530,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>220</v>
@@ -550,10 +541,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>220</v>
@@ -561,43 +552,43 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>-220</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-220</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
       <c r="C9">
-        <v>-220</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>220</v>
@@ -605,10 +596,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>220</v>
@@ -616,21 +607,21 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-220</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>220</v>
@@ -638,10 +629,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>220</v>
@@ -649,10 +640,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
       </c>
       <c r="C15">
         <v>220</v>
@@ -660,188 +651,45 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>220</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>220</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32">
         <v>220</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujg/document/vscode/Lazy_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B267FB-7FD6-C448-B5D0-81BF11926927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54DC70-A8C9-1741-A3C2-8CF506F889D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1000" windowWidth="27840" windowHeight="15800" xr2:uid="{CEC9A438-80B5-1D45-8350-8CDF0AA83F56}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>source</t>
   </si>
@@ -37,77 +37,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路由器</t>
-  </si>
-  <si>
     <t>DC48Vdzp</t>
   </si>
   <si>
     <t>pdu1</t>
   </si>
   <si>
-    <t>加密认证网关</t>
-  </si>
-  <si>
     <t>zk1</t>
   </si>
   <si>
-    <t>逆变器</t>
-  </si>
-  <si>
-    <t>实时交换机</t>
-  </si>
-  <si>
     <t>48Vupsbox</t>
   </si>
   <si>
-    <t>非实时交换机</t>
-  </si>
-  <si>
-    <t>48V不间断电源盒</t>
-  </si>
-  <si>
     <t>jk1</t>
   </si>
   <si>
-    <t>防火墙</t>
-  </si>
-  <si>
-    <t>网络安全检测装置</t>
-  </si>
-  <si>
-    <t>AC220</t>
-  </si>
-  <si>
-    <t>直流分配电源空开</t>
-  </si>
-  <si>
     <t>直流馈线屏</t>
   </si>
   <si>
-    <t>DC48</t>
-  </si>
-  <si>
     <t>nbq</t>
   </si>
   <si>
-    <t>DC48V端子排</t>
-  </si>
-  <si>
     <t>zk2</t>
   </si>
   <si>
-    <t>交流分配电源空开</t>
-  </si>
-  <si>
     <t>13p不间断电源屏</t>
+  </si>
+  <si>
+    <t>lyq</t>
+  </si>
+  <si>
+    <t>jmwg</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>sw2</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>wa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +106,12 @@
       <sz val="12"/>
       <color rgb="FF9CDCFE"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -152,12 +137,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,12 +464,13 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -496,198 +485,198 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>-48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
       <c r="C7">
         <v>-48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>-48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>12</v>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>-48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>14</v>
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>-220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>-48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>21</v>
+      <c r="A18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>-48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
+      <c r="A19" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>220</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujg/document/vscode/Lazy_script/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54DC70-A8C9-1741-A3C2-8CF506F889D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1000" windowWidth="27840" windowHeight="15800" xr2:uid="{CEC9A438-80B5-1D45-8350-8CDF0AA83F56}"/>
+    <workbookView windowWidth="28060" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>source</t>
   </si>
@@ -34,71 +23,89 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DC48Vdzp</t>
   </si>
   <si>
+    <t>lyq-24p</t>
+  </si>
+  <si>
     <t>pdu1</t>
   </si>
   <si>
+    <t>jmwg-24p</t>
+  </si>
+  <si>
     <t>zk1</t>
   </si>
   <si>
+    <t>nbq-24p</t>
+  </si>
+  <si>
     <t>48Vupsbox</t>
   </si>
   <si>
+    <t>sw1-24p</t>
+  </si>
+  <si>
+    <t>sw2-24p</t>
+  </si>
+  <si>
+    <t>48Vupsbox-24p</t>
+  </si>
+  <si>
     <t>jk1</t>
   </si>
   <si>
+    <t>fw-24p</t>
+  </si>
+  <si>
+    <t>wa-24p</t>
+  </si>
+  <si>
+    <t>pdu1-24p</t>
+  </si>
+  <si>
     <t>直流馈线屏</t>
   </si>
   <si>
+    <t>zk1-24p</t>
+  </si>
+  <si>
     <t>nbq</t>
   </si>
   <si>
+    <t>zk2-24p</t>
+  </si>
+  <si>
     <t>zk2</t>
   </si>
   <si>
+    <t>DC48Vdzp-24p</t>
+  </si>
+  <si>
     <t>13p不间断电源屏</t>
   </si>
   <si>
-    <t>lyq</t>
-  </si>
-  <si>
-    <t>jmwg</t>
-  </si>
-  <si>
-    <t>sw1</t>
-  </si>
-  <si>
-    <t>sw2</t>
-  </si>
-  <si>
-    <t>fw</t>
-  </si>
-  <si>
-    <t>wa</t>
+    <t>jk1-24p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -106,24 +113,378 @@
       <sz val="12"/>
       <color rgb="FF9CDCFE"/>
       <name val="Menlo"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,34 +492,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -207,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,26 +899,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -292,23 +934,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,30 +1075,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B8C0EC-02A1-D84A-8A5E-3B8B37A8EA07}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.8" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,20 +1104,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>-48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -505,185 +1133,326 @@
       <c r="C3">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>-48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>-48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>-48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>220</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>220</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>-220</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>-48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>-48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>220</v>
       </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K19" errorStyle="warning">
+      <formula1>"220,-220,-48,-24,-12"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>